--- a/medicine/Enfance/Chris_Cool/Chris_Cool.xlsx
+++ b/medicine/Enfance/Chris_Cool/Chris_Cool.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chris Cool (titre original : Christopher Cool: Teen Agent, littéralement : Christopher Cool : agent adolescent) est une série américaine de six romans pour la jeunesse écrite par Jack Lancer, pseudonyme de Jim Lawrence, publiée aux États-Unis de 1967 à 1969 par Grosset &amp; Dunlap.
@@ -513,7 +525,9 @@
           <t>L’auteur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chris Cool a été créée par le Stratemeyer Syndicate, une société d'édition qui embauche des rédacteurs à qui elle confie des synopsis de romans qu'ils doivent développer. Un contrat oblige les rédacteurs à renoncer à tous droits sur leur travail et à garder secrètes leur collaboration et leur identité, et à utiliser des pseudonymes. C'est Jack Lancer, de son vrai nom Jim Lawrence, qui a écrit tous les romans de la série. Il a révélé son identité en 1989 lors d’un entretien publié dans le magazine Comics Interview (no 69).
 De 1966 à 1977, Jim Lawrence écrira un comic strip des aventures de James Bond dans le journal Daily Express, le dessinateur étant Yaroslav Horak.
@@ -545,7 +559,9 @@
           <t>Le héros</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chris, jeune étudiant, est le meilleur élément de l'A.T.S., la seule organisation de contre-espionnage au monde à recruter des agents de moins de vingt ans. Son chef est Z (X en VO). Avec son ami et collègue, le jeune Sioux Geronimo (un Apache dans la version originale), il se déplace dans divers pays étrangers pour les besoins de ses missions. 
 Mélange de James Bond et des Frères Hardy, les aventures du jeune agent secret Chris Cool - parfois relevées d'un zeste de fantastique - reflètent la mode du thème de l’espionnage assorti de gadgets, très en vogue dans la littérature et la cinématographie des années soixante.
@@ -577,7 +593,9 @@
           <t>Liste des titres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Note : l'illustrateur exclusif de la série est Jacques Poirier.
 Chris Cool agent top-secret (X Marks the Spy, 1967) 1re édition française : 1969. Bib. verte no 406. Traduit par Jean Dupont.
